--- a/meta/program/BlancoValueObjectTask.xlsx
+++ b/meta/program/BlancoValueObjectTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920D3F8F-8391-8448-9E89-ED363ED86CA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F9A4F-D61C-A240-B368-9118A860794A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,22 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -269,12 +279,163 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ギョウマツ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">キゴウヲ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>searchTmpdir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>import文作成のために検索するtmpディレクトリをカンマ区切りで指定します。指定ディレクトリ直下のvalueobjectディレクトリの下にxmlを探しにいきます。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ケンサク </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">チョッカ </t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t xml:space="preserve">シタニ </t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名の後ろに追加するパッケージ文字列を指定します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>voPackageSuffix</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageを探しにいくValueObject定義書を処理する際に指定されていたはずの packageSuffix を指定します。</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">テイギショヲ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ショリスル </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">サイニ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイサレテイタ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>voOverridePackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>packageを探しにいくValueObject定義書を処理する際に指定されていたはずの overridePackage を指定します。</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">テイギショヲ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ショリスル </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">サイニ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイサレテイタ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -327,6 +488,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -360,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -730,11 +897,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -842,6 +1022,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -853,6 +1058,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -882,11 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1255,10 +1461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:I20"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1304,10 +1510,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1317,10 +1523,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1331,10 +1537,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1345,10 +1551,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1380,38 +1586,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="44">
@@ -1427,12 +1633,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="49">
@@ -1448,12 +1654,12 @@
       <c r="E15" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="49">
@@ -1469,14 +1675,14 @@
       <c r="E16" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="49">
         <v>4</v>
       </c>
@@ -1495,7 +1701,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="22">
         <v>5</v>
       </c>
@@ -1516,7 +1722,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="57">
         <v>6</v>
       </c>
@@ -1537,7 +1743,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" ht="66" customHeight="1">
+    <row r="20" spans="1:10" ht="66" customHeight="1">
       <c r="A20" s="22">
         <v>7</v>
       </c>
@@ -1551,81 +1757,190 @@
       <c r="E20" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="42"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+    </row>
+    <row r="21" spans="1:10" ht="52" customHeight="1">
+      <c r="A21" s="49">
+        <f t="shared" ref="A21:A26" si="0">A20+1</f>
+        <v>8</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="42"/>
+      <c r="E21" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="77"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="42"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+    </row>
+    <row r="24" spans="1:10" s="70" customFormat="1">
+      <c r="A24" s="64">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+    </row>
+    <row r="25" spans="1:10" s="70" customFormat="1">
+      <c r="A25" s="64">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
+    </row>
+    <row r="26" spans="1:10" s="70" customFormat="1">
+      <c r="A26" s="64">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -1635,23 +1950,22 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F46" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D26" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D27:D30 D22:D23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C26" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C25:C30 C22:C23" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24:D26" xr:uid="{DB2CD47E-33DA-5C40-81E3-C2A567C8D0F1}">
+      <formula1>必須</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.39375000000000004" header="0.51180555555555562" footer="0.11805555555555557"/>

--- a/meta/program/BlancoValueObjectTask.xlsx
+++ b/meta/program/BlancoValueObjectTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F9A4F-D61C-A240-B368-9118A860794A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C79E4F-3E18-5E45-9C94-A5644306877A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -427,6 +427,40 @@
     </rPh>
     <rPh sb="62" eb="64">
       <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ignoreDefault</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java向け以外のデフォルト値を無視します。</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ムケ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">イガイノ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ムシシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ignoreAnnotation</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java向け以外のアノテーションを無視します。</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ムケ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">イガイノ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ムシシマス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -914,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1038,6 +1072,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1092,7 +1128,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1461,10 +1496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1510,10 +1545,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1523,10 +1558,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1537,10 +1572,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1551,10 +1586,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1586,38 +1621,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="44">
@@ -1633,12 +1668,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="49">
@@ -1654,12 +1689,12 @@
       <c r="E15" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="49">
@@ -1675,12 +1710,12 @@
       <c r="E16" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="49">
@@ -1757,16 +1792,16 @@
       <c r="E20" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:10" ht="52" customHeight="1">
       <c r="A21" s="49">
-        <f t="shared" ref="A21:A26" si="0">A20+1</f>
+        <f t="shared" ref="A21:A28" si="0">A20+1</f>
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1779,12 +1814,12 @@
       <c r="E21" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="49">
@@ -1852,7 +1887,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="75" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="42" t="s">
@@ -1873,7 +1908,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="75" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="42" t="s">
@@ -1889,27 +1924,51 @@
       <c r="I26" s="68"/>
       <c r="J26" s="69"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
+    <row r="27" spans="1:10" s="70" customFormat="1">
+      <c r="A27" s="64">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="69"/>
+    </row>
+    <row r="28" spans="1:10" s="70" customFormat="1">
+      <c r="A28" s="64">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="22"/>
@@ -1923,15 +1982,37 @@
       <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1953,17 +2034,17 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F46" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F48" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D27:D30 D22:D23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D29:D32 D22:D23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C20 C25:C30 C22:C23" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C32" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24:D26" xr:uid="{DB2CD47E-33DA-5C40-81E3-C2A567C8D0F1}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24:D28" xr:uid="{DB2CD47E-33DA-5C40-81E3-C2A567C8D0F1}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1980,7 +2061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>

--- a/meta/program/BlancoValueObjectTask.xlsx
+++ b/meta/program/BlancoValueObjectTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C79E4F-3E18-5E45-9C94-A5644306877A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488E591-A6DE-6C4E-870E-503B79D11084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -460,6 +460,23 @@
       <t xml:space="preserve">イガイノ </t>
     </rPh>
     <rPh sb="17" eb="19">
+      <t xml:space="preserve">ムシシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ignoreImport</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java向け以外のインポートを無視します。</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ムケ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">イガイノ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t xml:space="preserve">ムシシマス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
@@ -1496,10 +1513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1801,7 +1818,7 @@
     </row>
     <row r="21" spans="1:10" ht="52" customHeight="1">
       <c r="A21" s="49">
-        <f t="shared" ref="A21:A28" si="0">A20+1</f>
+        <f t="shared" ref="A21:A29" si="0">A20+1</f>
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1970,16 +1987,28 @@
       <c r="I28" s="68"/>
       <c r="J28" s="69"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
+    <row r="29" spans="1:10" s="70" customFormat="1">
+      <c r="A29" s="64">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="22"/>
@@ -2004,15 +2033,26 @@
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2034,17 +2074,17 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F48" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F49" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D29:D32 D22:D23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D20 D30:D33 D22:D23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C32" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C33" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24:D28" xr:uid="{DB2CD47E-33DA-5C40-81E3-C2A567C8D0F1}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D24:D29" xr:uid="{DB2CD47E-33DA-5C40-81E3-C2A567C8D0F1}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
